--- a/data/raw/REWindSolar_edits.xlsx
+++ b/data/raw/REWindSolar_edits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/vignesh_raghunathan_wur_nl/Documents/Internship/Literature Review/Final Data Processing/Mitigation_EntryPoints_CodeRepo/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{C8F0FADF-FBF6-4C5F-98B0-AC5CF7D7DB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{621BE11E-9D93-492C-A2F2-FCA513569895}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{C8F0FADF-FBF6-4C5F-98B0-AC5CF7D7DB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCD70BA2-3AA8-4D37-A38B-120B6F074C69}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="12240" windowWidth="22149" windowHeight="12549" xr2:uid="{BB154F08-85AE-4E5F-A669-15A2B9050D97}"/>
   </bookViews>
@@ -3207,8 +3207,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AO66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3226,8 +3226,8 @@
     <col min="25" max="25" width="52.54296875" customWidth="1"/>
     <col min="26" max="26" width="8.7265625" customWidth="1"/>
     <col min="27" max="28" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="105.08984375" customWidth="1"/>
-    <col min="30" max="30" width="48.81640625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="67.7265625" customWidth="1"/>
+    <col min="30" max="30" width="61.08984375" style="6" customWidth="1"/>
     <col min="31" max="31" width="31.81640625" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="16.36328125" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="81.1796875" customWidth="1"/>
@@ -3359,7 +3359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>118</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>120</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>103</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>154</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>130</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>101</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>139</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="11" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>158</v>
       </c>
@@ -4296,7 +4296,7 @@
       <c r="AN11"/>
       <c r="AO11"/>
     </row>
-    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>643</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>846</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>140</v>
       </c>
@@ -4541,7 +4541,7 @@
       <c r="AN14"/>
       <c r="AO14"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>249</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>102</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>161</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="86" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" ht="86" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>117</v>
       </c>
@@ -5010,7 +5010,7 @@
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>155</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>160</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>115</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>121</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>163</v>
       </c>
@@ -5636,7 +5636,7 @@
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
     </row>
-    <row r="27" spans="1:41" ht="122" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" ht="122" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>136</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>129</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="33" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>134</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>143</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>131</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="43" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>107</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="44" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>108</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>109</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:41" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>110</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="63" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>105</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="64" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>122</v>
       </c>
@@ -9352,7 +9352,7 @@
   <autoFilter ref="A1:AO66" xr:uid="{E8DD126E-20A4-4589-B416-3FC68F66F6B1}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Distributed_Industrial_Policy"/>
+        <filter val="Centralized_Industrial_Policy"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO66">
@@ -9373,14 +9373,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="024b7f7f-dff1-411f-b211-75ee0ccd1ac0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B7F65B25344CC47849A91FD628B10BD" ma:contentTypeVersion="16" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="ad87c43e437cca6b8ee5e7779507047a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="024b7f7f-dff1-411f-b211-75ee0ccd1ac0" xmlns:ns4="f15d149d-abb1-4532-8380-d462b3268d03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac0845a53d7cfe425172a7c50cd3692e" ns3:_="" ns4:_="">
     <xsd:import namespace="024b7f7f-dff1-411f-b211-75ee0ccd1ac0"/>
@@ -9619,6 +9611,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="024b7f7f-dff1-411f-b211-75ee0ccd1ac0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE30047F-FACE-4EFF-A9D3-331FFC9E1024}">
   <ds:schemaRefs>
@@ -9628,16 +9628,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B239BDB3-6262-45A1-A684-FD14E2F4913C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="024b7f7f-dff1-411f-b211-75ee0ccd1ac0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DA3F14-B37E-48A6-ADCF-E21BCDD83114}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9654,4 +9644,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B239BDB3-6262-45A1-A684-FD14E2F4913C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="024b7f7f-dff1-411f-b211-75ee0ccd1ac0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>